--- a/wp-content/plugins/cartapari-survey/assets/form_render_template.xlsx
+++ b/wp-content/plugins/cartapari-survey/assets/form_render_template.xlsx
@@ -646,14 +646,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF5EB91E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -763,6 +755,14 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1036,9 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1054,48 +1051,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1108,68 +1105,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1454,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DY87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1468,7 @@
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" style="43" customWidth="1"/>
     <col min="10" max="129" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1476,12 +1476,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1585,7 +1585,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="65" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="13"/>
@@ -1619,1121 +1619,1121 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="30"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="30"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="30"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="170.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="30"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="30"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="30"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="30"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="37" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="37" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="37" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="37" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="37" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="37" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="37" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="38" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="37" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="37" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="37" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="32"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="37" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="37" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="38" t="s">
+      <c r="A40" s="49"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="37" t="s">
+      <c r="A41" s="49"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="30"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="34" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="30"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="34" t="s">
+      <c r="A44" s="55"/>
+      <c r="B44" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="30"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54" t="s">
+      <c r="A45" s="55"/>
+      <c r="B45" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="30"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="48" t="s">
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="30"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="30"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="34" t="s">
+      <c r="A48" s="49"/>
+      <c r="B48" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="30"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="30"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="50" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="37" t="s">
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="30"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="29"/>
     </row>
     <row r="52" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="37" t="s">
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="30"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="37" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="32"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="30"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="37" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="32"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="30"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="37" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="30"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="29"/>
     </row>
     <row r="56" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54" t="s">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="32"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="30"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="37" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="F57" s="32"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="37" t="s">
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="32"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="30"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="38" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="30"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="37" t="s">
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="30"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="37" t="s">
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="30"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="37" t="s">
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="30"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="37" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="F63" s="32"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="30"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="37" t="s">
+      <c r="A64" s="55"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="32"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="30"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="32"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="30"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="37" t="s">
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="30"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="37" t="s">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F67" s="32"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="30"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="37" t="s">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="30"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="37" t="s">
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="30"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="48"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="30"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="48" t="s">
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E71" s="48"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="30"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D72" s="48" t="s">
+      <c r="D72" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="30"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="29"/>
     </row>
     <row r="73" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="34" t="s">
+      <c r="A73" s="49"/>
+      <c r="B73" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="50"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="30"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="29"/>
     </row>
     <row r="74" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="40"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="39"/>
     </row>
     <row r="75" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="51"/>
-      <c r="D75" s="48" t="s">
+      <c r="C75" s="63"/>
+      <c r="D75" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="30"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="48" t="s">
+      <c r="A76" s="49"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E76" s="48"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="30"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="48" t="s">
+      <c r="A77" s="49"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="48"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="30"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="48" t="s">
+      <c r="A78" s="49"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="48"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="30"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="48" t="s">
+      <c r="A79" s="49"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="48"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="30"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="29"/>
     </row>
     <row r="80" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="48" t="s">
+      <c r="A80" s="49"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="E80" s="48"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="30"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="48" t="s">
+      <c r="A81" s="49"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="30"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="48" t="s">
+      <c r="A82" s="49"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="E82" s="48"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="30"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="42"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -2744,7 +2744,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="43"/>
+      <c r="I84" s="42"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
@@ -2755,7 +2755,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="43"/>
+      <c r="I85" s="42"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -2766,7 +2766,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="43"/>
+      <c r="I86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -2777,50 +2777,49 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="43"/>
+      <c r="I87" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H31"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H41"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="G36:G41"/>
-    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="B75:C82"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:I82"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A49:A69"/>
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="D56:D64"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="I56:I64"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:G55"/>
+    <mergeCell ref="H49:H69"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="G65:G69"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="D47:E47"/>
@@ -2837,45 +2836,46 @@
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:G55"/>
-    <mergeCell ref="H49:H69"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="A49:A69"/>
-    <mergeCell ref="I50:I55"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="D56:D64"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="I56:I64"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="B75:C82"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:I82"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="H32:H41"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="G36:G41"/>
+    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H23:H31"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F73 F75:F82">
